--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/295ab7c8e7443a42/Codigos/Java/Prova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{FF8671EA-F618-439F-909D-C5636DA1E83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0C6D4F-B721-4DCD-B869-2F72D648C811}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{FF8671EA-F618-439F-909D-C5636DA1E83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A64794F0-C9B6-4E39-B5E8-C1A89C301045}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5DD6D06D-0570-49B6-AEE1-D890F108E6D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>Tabela de Tempo</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Tabela de Trocas</t>
   </si>
   <si>
-    <t>7 min e 43 sec</t>
-  </si>
-  <si>
     <t>Selection Sort</t>
   </si>
   <si>
@@ -102,6 +99,36 @@
   </si>
   <si>
     <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>755 ms</t>
+  </si>
+  <si>
+    <t>939ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 825 ms</t>
+  </si>
+  <si>
+    <t>43ms</t>
+  </si>
+  <si>
+    <t>494ms</t>
+  </si>
+  <si>
+    <t>461ms</t>
+  </si>
+  <si>
+    <t>751ms</t>
+  </si>
+  <si>
+    <t>Não finalizou por Tempo</t>
+  </si>
+  <si>
+    <t>Código não executou</t>
+  </si>
+  <si>
+    <t>Legendas:</t>
   </si>
 </sst>
 </file>
@@ -131,12 +158,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,31 +204,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -266,6 +298,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -578,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246F1F37-3BDF-4C8C-AF69-C0CDF0268747}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,81 +651,81 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -695,6 +733,10 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -725,82 +767,88 @@
       <c r="B10" s="1">
         <v>999998</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1999868</v>
+        <v>1999998</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>999999</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>31017854</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20951462</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30345578</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -823,105 +871,126 @@
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:B3 D3">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4:A7">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A15">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A23 A25">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B3 D3">
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A15">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A23">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
